--- a/pred_ohlcv/54_21/2020-01-20 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 MXC ohlcv.xlsx
@@ -1952,7 +1952,7 @@
         <v>17111032.38898883</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>18051843.40838883</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>14744190.16725291</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>13786043.79985291</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>13325585.47155291</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>13509349.07345291</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>13987772.92665291</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>14203519.55665291</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>14260146.64365291</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>14906482.91415291</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>14906482.91415291</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>14906482.91415291</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>15900495.22345291</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>15900495.22345291</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>15900495.22345291</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>16832770.43945292</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>16832770.43945292</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1012974.531155225</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-440259.4632552249</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-269845.8323552249</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>215496.5319447751</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>93551.11764477513</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3614235.859444775</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>3613108.859444775</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3055916.592444775</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>3862979.175644775</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>3151055.763744775</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>3082491.125344775</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3415871.871044775</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>3498945.905744775</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>3300473.253744775</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2730193.318544775</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2268209.457994471</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>2267057.680994471</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2670930.249394471</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2543385.994694471</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2437151.792494471</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2917975.50379447</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3032575.50379447</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3031065.50379447</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3028565.50379447</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3081944.55169447</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2396892.61389447</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-7099873.634905528</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-7102213.671305528</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-7142213.671305528</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>7400441.891519127</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>6587374.833319128</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>6914591.125319128</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>7225501.337919128</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>6232822.122319128</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>5781111.974419128</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>6815913.543819129</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>6814537.203119129</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>6769006.681419129</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>4189674.004419128</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4069541.165619128</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-12531534.12368087</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-11866966.07288087</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-16025757.31956672</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-16113518.25976672</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-49209099.10839967</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-49828852.31703001</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-49520666.57473001</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-49360666.57473001</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-54061404.75253002</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 MXC ohlcv.xlsx
@@ -1952,7 +1952,7 @@
         <v>17111032.38898883</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>18051843.40838883</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>14744190.16725291</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>13786043.79985291</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>13325585.47155291</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>13509349.07345291</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>13987772.92665291</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>14203519.55665291</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>14260146.64365291</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>14906482.91415291</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>14906482.91415291</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>14906482.91415291</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>15900495.22345291</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>15900495.22345291</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>15900495.22345291</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>16832770.43945292</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>16832770.43945292</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>15959415.99265292</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1012974.531155225</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-440259.4632552249</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>93551.11764477513</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>3614235.859444775</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>3613108.859444775</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3055916.592444775</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>3446429.394144775</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>3862979.175644775</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>3151055.763744775</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>3082491.125344775</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3415871.871044775</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>3498945.905744775</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>3300473.253744775</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2730193.318544775</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3894585.753194471</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2265812.505594471</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2288859.457994471</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2670930.249394471</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2543385.994694471</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2917975.50379447</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3032575.50379447</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3031065.50379447</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3028565.50379447</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3081944.55169447</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2396892.61389447</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2312677.41539447</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2312912.41539447</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2229827.24539447</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-7099873.634905528</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-7102213.671305528</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-7142213.671305528</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2073107.514305527</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2990098.897605527</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2990098.897605527</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2876273.407305527</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-2877665.407305527</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-2800194.184705527</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-2800194.184705527</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-2803543.496505527</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-2883635.655705527</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-2883635.655705527</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-3046236.474205527</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-3045839.650305527</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-3045839.650305527</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-3045839.650305527</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-2962095.641808157</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-3310066.523208157</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-3310066.523208157</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-5728293.812208157</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-3532398.599008157</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-3532398.599008157</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-3792398.599008157</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-4008725.247408157</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-3670939.071408157</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-3993804.448808157</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2820849.638008157</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>6192307.134883432</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>12880139.13191913</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>7400441.891519127</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>6587374.833319128</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>6914591.125319128</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>7225501.337919128</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>6232822.122319128</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>5781111.974419128</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>6815913.543819129</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>6814537.203119129</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>6769006.681419129</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>4189674.004419128</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4069541.165619128</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-12531534.12368087</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-11866966.07288087</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-12293279.0534634</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-16025757.31956672</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-16113518.25976672</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-49209099.10839967</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-49253322.83739967</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-49238931.84039967</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-49828852.31703001</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-49520666.57473001</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-49360666.57473001</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-49361813.49523001</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-49462625.49493001</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-51016793.05183002</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-54061404.75253002</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
